--- a/election2021/JONAL OFFICERS.xlsx
+++ b/election2021/JONAL OFFICERS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\election2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aems\election2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918059FB-9DF5-47B5-A494-4EC21A4D1D5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF0E400-9B96-4369-9EE6-9D6AA9D54DFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{94596061-A412-4F4E-9946-726E9C83DE84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{94596061-A412-4F4E-9946-726E9C83DE84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector Officer" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>designation</t>
-  </si>
-  <si>
-    <t>, ('9', 'Missamora')</t>
   </si>
 </sst>
 </file>
@@ -481,20 +478,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E28694-734F-4CE5-B64A-EBBBF54D3998}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -511,7 +508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -526,7 +523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -541,7 +538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -556,7 +553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -571,7 +568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -584,7 +581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -599,7 +596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>16</v>
@@ -614,7 +611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>18</v>
@@ -629,7 +626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>20</v>
@@ -644,7 +641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -657,11 +654,6 @@
       </c>
       <c r="E11" s="1">
         <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
